--- a/diary_files/Diary.xlsx
+++ b/diary_files/Diary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Дмитрий\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D7E4E0-402C-471B-82ED-B4469E9C40D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B36940E9-84DF-40DF-8FA4-19366F36B833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{C44DDB6F-82F7-4603-B9C6-F5AB0749C208}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7270" xr2:uid="{C44DDB6F-82F7-4603-B9C6-F5AB0749C208}"/>
   </bookViews>
   <sheets>
     <sheet name="Расписание для учителей" sheetId="2" r:id="rId1"/>
@@ -293,7 +293,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\6\4"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,16 +310,8 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,12 +327,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFC5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -543,15 +529,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -870,25 +847,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BCB1F1-564B-411D-835A-1535EC11A2B1}">
   <dimension ref="A1:AK51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.59765625" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" customWidth="1"/>
-    <col min="3" max="5" width="6.59765625" customWidth="1"/>
-    <col min="6" max="7" width="3.59765625" customWidth="1"/>
-    <col min="8" max="9" width="6.59765625" customWidth="1"/>
-    <col min="10" max="17" width="3.59765625" customWidth="1"/>
-    <col min="18" max="19" width="6.59765625" customWidth="1"/>
-    <col min="20" max="30" width="3.59765625" customWidth="1"/>
-    <col min="31" max="31" width="6.59765625" customWidth="1"/>
-    <col min="32" max="37" width="3.59765625" customWidth="1"/>
+    <col min="1" max="1" width="1.6328125" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="3" max="5" width="6.6328125" customWidth="1"/>
+    <col min="6" max="7" width="3.6328125" customWidth="1"/>
+    <col min="8" max="9" width="6.6328125" customWidth="1"/>
+    <col min="10" max="17" width="3.6328125" customWidth="1"/>
+    <col min="18" max="19" width="6.6328125" customWidth="1"/>
+    <col min="20" max="30" width="3.6328125" customWidth="1"/>
+    <col min="31" max="31" width="6.6328125" customWidth="1"/>
+    <col min="32" max="37" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -937,7 +912,7 @@
       <c r="AJ1" s="1"/>
       <c r="AK1" s="3"/>
     </row>
-    <row r="2" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -1048,9 +1023,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -1137,9 +1112,9 @@
       </c>
       <c r="AK3" s="17"/>
     </row>
-    <row r="4" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -1224,9 +1199,9 @@
       <c r="AJ4" s="16"/>
       <c r="AK4" s="21"/>
     </row>
-    <row r="5" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -1323,9 +1298,9 @@
       </c>
       <c r="AK5" s="17"/>
     </row>
-    <row r="6" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -1408,9 +1383,9 @@
       <c r="AJ6" s="8"/>
       <c r="AK6" s="17"/>
     </row>
-    <row r="7" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16"/>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -1503,9 +1478,9 @@
       <c r="AJ7" s="8"/>
       <c r="AK7" s="17"/>
     </row>
-    <row r="8" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -1598,9 +1573,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -1691,9 +1666,9 @@
       </c>
       <c r="AK9" s="17"/>
     </row>
-    <row r="10" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -1782,9 +1757,9 @@
       </c>
       <c r="AK10" s="17"/>
     </row>
-    <row r="11" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -1873,9 +1848,9 @@
       </c>
       <c r="AK11" s="17"/>
     </row>
-    <row r="12" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -1962,9 +1937,9 @@
       <c r="AJ12" s="8"/>
       <c r="AK12" s="17"/>
     </row>
-    <row r="13" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -2057,7 +2032,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="10" t="s">
         <v>47</v>
@@ -2152,9 +2127,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -2243,9 +2218,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="19"/>
@@ -2336,9 +2311,9 @@
       </c>
       <c r="AK16" s="17"/>
     </row>
-    <row r="17" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -2433,9 +2408,9 @@
       </c>
       <c r="AK17" s="17"/>
     </row>
-    <row r="18" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="19"/>
@@ -2518,9 +2493,9 @@
       <c r="AJ18" s="8"/>
       <c r="AK18" s="17"/>
     </row>
-    <row r="19" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16"/>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="22" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -2607,9 +2582,9 @@
       </c>
       <c r="AK19" s="21"/>
     </row>
-    <row r="20" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="19"/>
@@ -2700,9 +2675,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16"/>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="19"/>
@@ -2785,9 +2760,9 @@
       </c>
       <c r="AK21" s="17"/>
     </row>
-    <row r="22" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -2880,7 +2855,7 @@
       </c>
       <c r="AK22" s="17"/>
     </row>
-    <row r="23" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="B23" s="10" t="s">
         <v>57</v>
@@ -2971,7 +2946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="B24" s="10" t="s">
         <v>58</v>
@@ -3058,7 +3033,7 @@
       <c r="AJ24" s="8"/>
       <c r="AK24" s="17"/>
     </row>
-    <row r="25" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="B25" s="10" t="s">
         <v>59</v>
@@ -3143,7 +3118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="B26" s="10" t="s">
         <v>60</v>
@@ -3234,7 +3209,7 @@
       </c>
       <c r="AK26" s="17"/>
     </row>
-    <row r="27" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="B27" s="10" t="s">
         <v>61</v>
@@ -3319,7 +3294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16"/>
       <c r="B28" s="22" t="s">
         <v>62</v>
@@ -3404,7 +3379,7 @@
       </c>
       <c r="AK28" s="21"/>
     </row>
-    <row r="29" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="10" t="s">
         <v>63</v>
@@ -3487,7 +3462,7 @@
       <c r="AJ29" s="8"/>
       <c r="AK29" s="17"/>
     </row>
-    <row r="30" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="10" t="s">
         <v>64</v>
@@ -3580,7 +3555,7 @@
       </c>
       <c r="AK30" s="21"/>
     </row>
-    <row r="31" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="10" t="s">
         <v>65</v>
@@ -3667,7 +3642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="10" t="s">
         <v>66</v>
@@ -3748,7 +3723,7 @@
       <c r="AJ32" s="8"/>
       <c r="AK32" s="17"/>
     </row>
-    <row r="33" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="10" t="s">
         <v>67</v>
@@ -3849,7 +3824,7 @@
       </c>
       <c r="AK33" s="17"/>
     </row>
-    <row r="34" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="10" t="s">
         <v>68</v>
@@ -3946,7 +3921,7 @@
       </c>
       <c r="AK34" s="17"/>
     </row>
-    <row r="35" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="10" t="s">
         <v>69</v>
@@ -4027,7 +4002,7 @@
       <c r="AJ35" s="16"/>
       <c r="AK35" s="21"/>
     </row>
-    <row r="36" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="10" t="s">
         <v>70</v>
@@ -4112,7 +4087,7 @@
       <c r="AJ36" s="8"/>
       <c r="AK36" s="17"/>
     </row>
-    <row r="37" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="10" t="s">
         <v>71</v>
@@ -4205,7 +4180,7 @@
       </c>
       <c r="AK37" s="17"/>
     </row>
-    <row r="38" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="10" t="s">
         <v>72</v>
@@ -4300,7 +4275,7 @@
       </c>
       <c r="AK38" s="17"/>
     </row>
-    <row r="39" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="B39" s="10" t="s">
         <v>73</v>
@@ -4395,7 +4370,7 @@
       </c>
       <c r="AK39" s="17"/>
     </row>
-    <row r="40" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="B40" s="10" t="s">
         <v>74</v>
@@ -4488,7 +4463,7 @@
       </c>
       <c r="AK40" s="17"/>
     </row>
-    <row r="41" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="B41" s="10" t="s">
         <v>75</v>
@@ -4589,7 +4564,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42" s="10" t="s">
         <v>76</v>
@@ -4688,7 +4663,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="B43" s="10" t="s">
         <v>77</v>
@@ -4761,7 +4736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" s="10" t="s">
         <v>78</v>
@@ -4852,7 +4827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="14" t="s">
         <v>79</v>
@@ -4925,7 +4900,7 @@
       </c>
       <c r="AK45" s="17"/>
     </row>
-    <row r="46" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="B46" s="10" t="s">
         <v>80</v>
@@ -5016,7 +4991,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
       <c r="B47" s="10" t="s">
         <v>81</v>
@@ -5067,7 +5042,7 @@
       <c r="AJ47" s="8"/>
       <c r="AK47" s="17"/>
     </row>
-    <row r="48" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="8"/>
       <c r="B48" s="10" t="s">
         <v>82</v>
@@ -5128,7 +5103,7 @@
       </c>
       <c r="AK48" s="17"/>
     </row>
-    <row r="49" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
       <c r="B49" s="10" t="s">
         <v>83</v>
@@ -5189,7 +5164,7 @@
       <c r="AJ49" s="16"/>
       <c r="AK49" s="21"/>
     </row>
-    <row r="50" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8"/>
       <c r="B50" s="10" t="s">
         <v>84</v>
@@ -5246,7 +5221,7 @@
       <c r="AJ50" s="8"/>
       <c r="AK50" s="17"/>
     </row>
-    <row r="51" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="9"/>
       <c r="B51" s="11" t="s">
         <v>85</v>
@@ -5299,7 +5274,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5309,7 +5284,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
